--- a/Assets/test.xlsx
+++ b/Assets/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="1">
   <si>
     <t>TEST</t>
     <phoneticPr fontId="1"/>
@@ -366,7 +366,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I33"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -848,9 +848,6 @@
       <c r="D17" t="s">
         <v>0</v>
       </c>
-      <c r="E17" t="s">
-        <v>0</v>
-      </c>
       <c r="F17" t="s">
         <v>0</v>
       </c>
@@ -875,9 +872,6 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
         <v>0</v>
       </c>
       <c r="F18" t="s">

--- a/Assets/test.xlsx
+++ b/Assets/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="1">
   <si>
     <t>TEST</t>
     <phoneticPr fontId="1"/>
@@ -366,7 +366,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -900,9 +900,6 @@
       <c r="D19" t="s">
         <v>0</v>
       </c>
-      <c r="E19" t="s">
-        <v>0</v>
-      </c>
       <c r="F19" t="s">
         <v>0</v>
       </c>
@@ -927,9 +924,6 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
         <v>0</v>
       </c>
       <c r="F20" t="s">
